--- a/data/input/France/scenarii_inputs_ademe.xlsx
+++ b/data/input/France/scenarii_inputs_ademe.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reynesfgd\GitHub\ThreeME_V3\data\input\France\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/81655/Documents/GitHub/ThreeME_V3/data/input/France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEACDAC-1BD7-4B88-B000-D2B382567111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A3D116-56B0-8A45-8899-D9AFCBD1DBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2880" yWindow="-13485" windowWidth="17280" windowHeight="8820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="32" r:id="rId1"/>
     <sheet name="carbontax100" sheetId="33" r:id="rId2"/>
+    <sheet name="mix_elec" sheetId="35" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>POP</t>
   </si>
@@ -47,6 +48,30 @@
   <si>
     <t>RCO2TAX_VOL</t>
   </si>
+  <si>
+    <t>PHIY_TOE_CELE_SECH</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SEGA</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SEHY</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SENU</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SEOI</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SEOT</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SESO</t>
+  </si>
+  <si>
+    <t>PHIY_TOE_CELE_SEWI</t>
+  </si>
 </sst>
 </file>
 
@@ -55,7 +80,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +88,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -84,9 +128,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,13 +452,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -584,7 +631,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -662,7 +709,7 @@
         <v>75831.473477275693</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -790,7 +837,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -848,7 +895,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -906,7 +953,7 @@
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -964,7 +1011,7 @@
       <c r="BE6" s="1"/>
       <c r="BF6" s="1"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1032,20 +1079,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDD73328-91AF-46D6-869A-4D40B7611A34}">
   <dimension ref="A1:BF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AK2" sqref="AK2:BL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1218,7 +1265,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1296,7 +1343,7 @@
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1354,7 +1401,7 @@
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1412,7 +1459,7 @@
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -1473,4 +1520,1075 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54100A3-763F-8D40-863A-7E3A8CBBE12F}">
+  <dimension ref="A1:BF9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2019</v>
+      </c>
+      <c r="D1">
+        <v>2020</v>
+      </c>
+      <c r="E1">
+        <v>2021</v>
+      </c>
+      <c r="F1">
+        <v>2022</v>
+      </c>
+      <c r="G1">
+        <v>2023</v>
+      </c>
+      <c r="H1">
+        <v>2024</v>
+      </c>
+      <c r="I1">
+        <v>2025</v>
+      </c>
+      <c r="J1">
+        <v>2026</v>
+      </c>
+      <c r="K1">
+        <v>2027</v>
+      </c>
+      <c r="L1">
+        <v>2028</v>
+      </c>
+      <c r="M1">
+        <v>2029</v>
+      </c>
+      <c r="N1">
+        <v>2030</v>
+      </c>
+      <c r="O1">
+        <v>2031</v>
+      </c>
+      <c r="P1">
+        <v>2032</v>
+      </c>
+      <c r="Q1">
+        <v>2033</v>
+      </c>
+      <c r="R1">
+        <v>2034</v>
+      </c>
+      <c r="S1">
+        <v>2035</v>
+      </c>
+      <c r="T1">
+        <v>2036</v>
+      </c>
+      <c r="U1">
+        <v>2037</v>
+      </c>
+      <c r="V1">
+        <v>2038</v>
+      </c>
+      <c r="W1">
+        <v>2039</v>
+      </c>
+      <c r="X1">
+        <v>2040</v>
+      </c>
+      <c r="Y1">
+        <v>2041</v>
+      </c>
+      <c r="Z1">
+        <v>2042</v>
+      </c>
+      <c r="AA1">
+        <v>2043</v>
+      </c>
+      <c r="AB1">
+        <v>2044</v>
+      </c>
+      <c r="AC1">
+        <v>2045</v>
+      </c>
+      <c r="AD1">
+        <v>2046</v>
+      </c>
+      <c r="AE1">
+        <v>2047</v>
+      </c>
+      <c r="AF1">
+        <v>2048</v>
+      </c>
+      <c r="AG1">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="P2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="S2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="T2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="U2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="V2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="W2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="X2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AE2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+    </row>
+    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="H3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="K3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="M3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="R3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="T3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="U3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="V3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="W3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="X3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+    </row>
+    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>0.109412</v>
+      </c>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1"/>
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1"/>
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1"/>
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1"/>
+    </row>
+    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.715951</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.715951</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.715951</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.715951</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.68</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.66</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.54</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AF5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+      <c r="AY5" s="1"/>
+      <c r="AZ5" s="1"/>
+      <c r="BA5" s="1"/>
+      <c r="BB5" s="1"/>
+      <c r="BC5" s="1"/>
+      <c r="BD5" s="1"/>
+      <c r="BE5" s="1"/>
+      <c r="BF5" s="1"/>
+    </row>
+    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="J6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="M6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="P6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="R6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="S6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="T6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="U6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="V6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="W6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="X6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+    </row>
+    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="W7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+    </row>
+    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="S8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="U8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="V8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AH8" s="3"/>
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+      <c r="AK8" s="3"/>
+    </row>
+    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <f>1-SUM(C2:C8)</f>
+        <v>6.5193999999999974E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:AG9" si="0">1-SUM(D2:D8)</f>
+        <v>6.5193999999999974E-2</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.5193999999999974E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>6.5193999999999974E-2</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.10114499999999993</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.12114499999999995</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.14114499999999996</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.16114499999999998</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.181145</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.20114500000000002</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.22114499999999992</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.24114499999999994</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.26114499999999996</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="0"/>
+        <v>0.28114499999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/input/France/scenarii_inputs_ademe.xlsx
+++ b/data/input/France/scenarii_inputs_ademe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/81655/Documents/GitHub/ThreeME_V3/data/input/France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A3D116-56B0-8A45-8899-D9AFCBD1DBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5D36A8-7587-5A4B-B604-18FCFD34FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-9040" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="32" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>POP</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>PHIY_TOE_CELE_SEWI</t>
   </si>
+  <si>
+    <t>PHIY_TOE_CELE_SECO</t>
+  </si>
 </sst>
 </file>
 
@@ -95,14 +98,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +114,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -131,9 +139,9 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1524,13 +1532,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54100A3-763F-8D40-863A-7E3A8CBBE12F}">
-  <dimension ref="A1:BF9"/>
+  <dimension ref="A1:BF10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1636,111 +1644,116 @@
       <c r="AG1">
         <v>2049</v>
       </c>
+      <c r="AH1">
+        <v>2050</v>
+      </c>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="D2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="F2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="G2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="H2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="M2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="N2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="O2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="P2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="R2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="S2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="T2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="U2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="V2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="W2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="X2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AC2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AD2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AF2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
+      <c r="C2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="D2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="E2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="F2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="G2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="H2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="K2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="L2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="N2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="O2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="P2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="R2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="S2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="T2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="U2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="V2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="W2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="X2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>3.9264E-2</v>
+      </c>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
       <c r="AN2" s="1"/>
@@ -1767,106 +1780,108 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="I3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="J3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="K3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="L3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="N3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="O3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="P3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="R3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="S3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="T3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="U3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="V3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="W3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="X3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AC3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AD3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AF3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="D3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="E3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="F3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="G3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="H3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="I3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="J3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="K3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="L3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="M3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="N3">
+        <v>5.1289999999999999E-3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="P3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="U3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="W3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="X3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
@@ -1893,106 +1908,108 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AC4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AD4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AF4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>0.109412</v>
-      </c>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="F4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="G4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="H4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="I4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="J4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="K4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="L4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="M4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="N4">
+        <v>4.2152000000000002E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="S4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="T4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0.109412</v>
+      </c>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
@@ -2019,106 +2036,108 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.715951</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.715951</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.715951</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.715951</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.68</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.66</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.64</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.62</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.6</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.54</v>
-      </c>
-      <c r="O5" s="4">
-        <v>0.52</v>
-      </c>
-      <c r="P5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="S5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="T5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AF5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.109412</v>
+      </c>
+      <c r="D5">
+        <v>0.109412</v>
+      </c>
+      <c r="E5">
+        <v>0.109412</v>
+      </c>
+      <c r="F5">
+        <v>0.109412</v>
+      </c>
+      <c r="G5">
+        <v>0.109412</v>
+      </c>
+      <c r="H5">
+        <v>0.109412</v>
+      </c>
+      <c r="I5">
+        <v>0.109412</v>
+      </c>
+      <c r="J5">
+        <v>0.109412</v>
+      </c>
+      <c r="K5">
+        <v>0.109412</v>
+      </c>
+      <c r="L5">
+        <v>0.10940999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.10941099999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.109412</v>
+      </c>
+      <c r="O5">
+        <v>0.109413</v>
+      </c>
+      <c r="P5">
+        <v>0.109414</v>
+      </c>
+      <c r="Q5">
+        <v>0.109415</v>
+      </c>
+      <c r="R5">
+        <v>0.109416</v>
+      </c>
+      <c r="S5">
+        <v>0.109417</v>
+      </c>
+      <c r="T5">
+        <v>0.109418</v>
+      </c>
+      <c r="U5">
+        <v>0.109419</v>
+      </c>
+      <c r="V5">
+        <v>0.10942</v>
+      </c>
+      <c r="W5">
+        <v>0.109421</v>
+      </c>
+      <c r="X5">
+        <v>0.10942200000000001</v>
+      </c>
+      <c r="Y5">
+        <v>0.10942300000000001</v>
+      </c>
+      <c r="Z5">
+        <v>0.10942399999999999</v>
+      </c>
+      <c r="AA5">
+        <v>0.10942499999999999</v>
+      </c>
+      <c r="AB5">
+        <v>0.109426</v>
+      </c>
+      <c r="AC5">
+        <v>0.109427</v>
+      </c>
+      <c r="AD5">
+        <v>0.109428</v>
+      </c>
+      <c r="AE5">
+        <v>0.109429</v>
+      </c>
+      <c r="AF5">
+        <v>0.10943</v>
+      </c>
+      <c r="AG5">
+        <v>0.109431</v>
+      </c>
+      <c r="AH5">
+        <v>0.109432</v>
+      </c>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
@@ -2145,450 +2164,565 @@
       <c r="A6">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="D6" s="3">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9.5899999999999996E-3</v>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.715951</v>
+      </c>
+      <c r="D6">
+        <v>0.715951</v>
+      </c>
+      <c r="E6">
+        <v>0.715951</v>
       </c>
       <c r="F6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.7</v>
       </c>
       <c r="G6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.68</v>
       </c>
       <c r="H6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.66</v>
       </c>
       <c r="I6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.64</v>
       </c>
       <c r="J6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.62</v>
       </c>
       <c r="K6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.6</v>
       </c>
       <c r="L6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="M6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.54</v>
       </c>
       <c r="O6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.52</v>
       </c>
       <c r="P6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="Q6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="R6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="S6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="T6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="U6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="V6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="W6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="X6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="Y6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="Z6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AA6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AB6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AC6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AD6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AE6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AF6" s="3">
-        <v>9.5899999999999996E-3</v>
+        <v>0.5</v>
       </c>
       <c r="AG6" s="3">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="D7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="K7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="M7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="O7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="P7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="R7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="S7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="T7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="U7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="V7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="W7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="X7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AB7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AC7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AD7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AF7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AG7" s="3">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AH7" s="3"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="D7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="E7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="F7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="G7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="H7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="I7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="J7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="K7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="L7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="M7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="N7">
+        <v>9.5899999999999996E-3</v>
+      </c>
+      <c r="O7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="R7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="U7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="V7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="W7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="X7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AE8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AF8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AG8" s="3">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AH8" s="3"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="F8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="G8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="H8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="I8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="K8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="L8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="M8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="P8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Q8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="R8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="S8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="T8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="U8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="V8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="W8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="X8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Y8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="Z8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AA8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AB8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AC8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AE8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AF8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AG8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AH8">
+        <v>1.2869999999999999E-3</v>
+      </c>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="G9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="N9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="P9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="R9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="S9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="T9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="U9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="V9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="W9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="X9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="Y9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="Z9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AA9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AB9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AC9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AD9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AE9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AF9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AG9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+      <c r="AH9">
+        <v>1.7149999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9">
-        <f>1-SUM(C2:C8)</f>
-        <v>6.5193999999999974E-2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:AG9" si="0">1-SUM(D2:D8)</f>
-        <v>6.5193999999999974E-2</v>
-      </c>
-      <c r="E9">
+      <c r="C10">
+        <f t="shared" ref="C10:E10" si="0">1-SUM(C2:C9)</f>
+        <v>6.0065000000000035E-2</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>6.5193999999999974E-2</v>
-      </c>
-      <c r="F9">
+        <v>6.0065000000000035E-2</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>6.5193999999999974E-2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.10114499999999993</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>0.12114499999999995</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0.14114499999999996</v>
-      </c>
-      <c r="J9">
-        <f t="shared" si="0"/>
-        <v>0.16114499999999998</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="0"/>
-        <v>0.181145</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
-        <v>0.20114500000000002</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
-        <v>0.22114499999999992</v>
-      </c>
-      <c r="N9">
-        <f t="shared" si="0"/>
-        <v>0.24114499999999994</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="0"/>
-        <v>0.26114499999999996</v>
-      </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="U9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="W9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="X9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="Z9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AA9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AB9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AC9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AD9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AE9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AF9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
-      </c>
-      <c r="AG9">
-        <f t="shared" si="0"/>
-        <v>0.28114499999999998</v>
+        <v>6.0065000000000035E-2</v>
+      </c>
+      <c r="F10" s="4">
+        <f>1-SUM(F2:F9)</f>
+        <v>7.6016000000000084E-2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" ref="G10:AH10" si="1">1-SUM(G2:G9)</f>
+        <v>9.6015999999999879E-2</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1160159999999999</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.13601599999999991</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.15601599999999993</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.17601599999999995</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.19601800000000003</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.2160169999999999</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.236016</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.16003499999999993</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18003399999999992</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18003299999999989</v>
+      </c>
+      <c r="R10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18003199999999997</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18003099999999994</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002999999999991</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002899999999999</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002799999999985</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002699999999994</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002599999999991</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002499999999988</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002399999999996</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002299999999993</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.1800219999999999</v>
+      </c>
+      <c r="AC10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18002099999999999</v>
+      </c>
+      <c r="AD10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18001999999999996</v>
+      </c>
+      <c r="AE10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18001899999999993</v>
+      </c>
+      <c r="AF10" s="4">
+        <f>1-SUM(AF2:AF9)</f>
+        <v>0.1800179999999999</v>
+      </c>
+      <c r="AG10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18001699999999987</v>
+      </c>
+      <c r="AH10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.18001599999999995</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/input/France/scenarii_inputs_ademe.xlsx
+++ b/data/input/France/scenarii_inputs_ademe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/81655/Documents/GitHub/ThreeME_V3/data/input/France/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/81655/Documents/GitHub/ThreeME_ADEME_V4/data/input/France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5D36A8-7587-5A4B-B604-18FCFD34FC25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC594E45-A7F3-D842-BF2C-AD762292B7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-9040" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="baseline" sheetId="32" r:id="rId1"/>
@@ -83,7 +83,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +102,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -136,12 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1538,13 +1545,13 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
@@ -1655,101 +1662,101 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="D2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="E2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="F2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="G2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="H2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="I2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="J2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="K2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="L2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="M2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="N2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="P2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="R2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="S2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="T2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="U2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="V2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="W2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="X2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>3.9264E-2</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>3.9264E-2</v>
+      <c r="C2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="F2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="M2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="O2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="P2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="R2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="S2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="T2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="U2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="W2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="X2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>3.9264450999999999E-2</v>
       </c>
       <c r="AI2" s="2"/>
       <c r="AJ2" s="2"/>
@@ -1783,101 +1790,101 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="D3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="E3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="F3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="G3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="H3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="I3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="J3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="K3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="L3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="M3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="N3">
-        <v>5.1289999999999999E-3</v>
-      </c>
-      <c r="O3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="P3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="R3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="S3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="U3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="V3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="W3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="X3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>4.2152000000000002E-2</v>
+      <c r="C3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="D3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="F3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="I3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="L3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="M3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="N3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="O3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="P3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="R3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="S3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="T3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="U3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="V3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="W3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="X3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>5.1293129999999999E-3</v>
       </c>
       <c r="AI3" s="2"/>
       <c r="AJ3" s="2"/>
@@ -1911,101 +1918,101 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="D4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="E4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="F4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="G4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="H4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="I4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="J4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="K4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="L4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="M4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="N4">
-        <v>4.2152000000000002E-2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="P4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="T4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0.109412</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>0.109412</v>
+      <c r="C4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="G4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="J4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="L4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="N4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="P4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="S4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="T4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="U4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="V4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="W4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="X4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>4.2151998000000003E-2</v>
       </c>
       <c r="AI4" s="2"/>
       <c r="AJ4" s="2"/>
@@ -2039,101 +2046,101 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>0.109412</v>
-      </c>
-      <c r="D5">
-        <v>0.109412</v>
-      </c>
-      <c r="E5">
-        <v>0.109412</v>
-      </c>
-      <c r="F5">
-        <v>0.109412</v>
-      </c>
-      <c r="G5">
-        <v>0.109412</v>
-      </c>
-      <c r="H5">
-        <v>0.109412</v>
-      </c>
-      <c r="I5">
-        <v>0.109412</v>
-      </c>
-      <c r="J5">
-        <v>0.109412</v>
-      </c>
-      <c r="K5">
-        <v>0.109412</v>
-      </c>
-      <c r="L5">
-        <v>0.10940999999999999</v>
-      </c>
-      <c r="M5">
-        <v>0.10941099999999999</v>
-      </c>
-      <c r="N5">
-        <v>0.109412</v>
-      </c>
-      <c r="O5">
-        <v>0.109413</v>
-      </c>
-      <c r="P5">
-        <v>0.109414</v>
-      </c>
-      <c r="Q5">
-        <v>0.109415</v>
-      </c>
-      <c r="R5">
-        <v>0.109416</v>
-      </c>
-      <c r="S5">
-        <v>0.109417</v>
-      </c>
-      <c r="T5">
-        <v>0.109418</v>
-      </c>
-      <c r="U5">
-        <v>0.109419</v>
-      </c>
-      <c r="V5">
-        <v>0.10942</v>
-      </c>
-      <c r="W5">
-        <v>0.109421</v>
-      </c>
-      <c r="X5">
-        <v>0.10942200000000001</v>
-      </c>
-      <c r="Y5">
-        <v>0.10942300000000001</v>
-      </c>
-      <c r="Z5">
-        <v>0.10942399999999999</v>
-      </c>
-      <c r="AA5">
-        <v>0.10942499999999999</v>
-      </c>
-      <c r="AB5">
-        <v>0.109426</v>
-      </c>
-      <c r="AC5">
-        <v>0.109427</v>
-      </c>
-      <c r="AD5">
-        <v>0.109428</v>
-      </c>
-      <c r="AE5">
-        <v>0.109429</v>
-      </c>
-      <c r="AF5">
-        <v>0.10943</v>
-      </c>
-      <c r="AG5">
-        <v>0.109431</v>
-      </c>
-      <c r="AH5">
-        <v>0.109432</v>
+      <c r="C5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="S5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="U5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="X5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="Y5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="Z5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>0.10941190000000001</v>
       </c>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
@@ -2167,50 +2174,50 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>0.715951</v>
-      </c>
-      <c r="D6">
-        <v>0.715951</v>
-      </c>
-      <c r="E6">
-        <v>0.715951</v>
+      <c r="C6" s="5">
+        <v>0.71595070699999996</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.71595070699999996</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.71595070699999996</v>
       </c>
       <c r="F6" s="3">
         <v>0.7</v>
       </c>
       <c r="G6" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="H6" s="3">
         <v>0.68</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0.66</v>
       </c>
-      <c r="I6" s="3">
+      <c r="J6" s="3">
         <v>0.64</v>
       </c>
-      <c r="J6" s="3">
+      <c r="K6" s="3">
         <v>0.62</v>
       </c>
-      <c r="K6" s="3">
+      <c r="L6" s="3">
         <v>0.6</v>
       </c>
-      <c r="L6" s="3">
-        <v>0.57999999999999996</v>
-      </c>
       <c r="M6" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.58000000000000096</v>
       </c>
       <c r="N6" s="3">
-        <v>0.54</v>
+        <v>0.56000000000000105</v>
       </c>
       <c r="O6" s="3">
-        <v>0.52</v>
+        <v>0.54000000000000103</v>
       </c>
       <c r="P6" s="3">
-        <v>0.5</v>
+        <v>0.52000000000000102</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.5</v>
+        <v>0.500000000000001</v>
       </c>
       <c r="R6" s="3">
         <v>0.5</v>
@@ -2274,101 +2281,101 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="D7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="E7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="F7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="G7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="H7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="I7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="J7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="K7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="L7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="M7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="N7">
-        <v>9.5899999999999996E-3</v>
-      </c>
-      <c r="O7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="P7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="R7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="S7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="U7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="V7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="W7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>1.2869999999999999E-3</v>
+      <c r="C7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="D7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="G7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="J7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="K7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="L7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="M7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="N7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="P7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="R7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="S7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="T7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="V7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="W7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="X7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="Y7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="Z7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AE7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>9.5896660000000002E-3</v>
       </c>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
@@ -2381,101 +2388,101 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="D8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="E8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="F8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="G8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="H8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="I8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="J8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="K8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="L8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="M8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="N8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="O8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="P8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Q8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="R8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="S8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="T8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="U8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="V8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="W8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="X8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Y8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="Z8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AA8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AB8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AC8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AD8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AE8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AF8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AG8">
-        <v>1.2869999999999999E-3</v>
-      </c>
-      <c r="AH8">
-        <v>1.2869999999999999E-3</v>
+      <c r="C8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AE8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AH8" s="5">
+        <v>1.2865439999999999E-3</v>
       </c>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
@@ -2488,101 +2495,101 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="D9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="E9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="F9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="G9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="H9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="I9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="J9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="K9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="L9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="M9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="N9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="O9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="P9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="Q9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="R9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="S9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="T9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="U9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="V9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="W9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="X9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="Y9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="Z9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AA9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AB9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AC9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AD9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AE9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AF9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AG9">
-        <v>1.7149999999999999E-2</v>
-      </c>
-      <c r="AH9">
-        <v>1.7149999999999999E-2</v>
+      <c r="C9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="U9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AE9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AH9" s="5">
+        <v>1.7149727E-2</v>
       </c>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.2">
@@ -2592,133 +2599,130 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:E10" si="0">1-SUM(C2:C9)</f>
-        <v>6.0065000000000035E-2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>6.0065000000000035E-2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>6.0065000000000035E-2</v>
+      <c r="C10" s="5">
+        <v>6.0065696000000002E-2</v>
+      </c>
+      <c r="D10" s="5">
+        <v>6.0065696000000002E-2</v>
+      </c>
+      <c r="E10" s="5">
+        <v>6.0065696000000002E-2</v>
       </c>
       <c r="F10" s="4">
         <f>1-SUM(F2:F9)</f>
-        <v>7.6016000000000084E-2</v>
+        <v>7.6016401000000178E-2</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" ref="G10:AH10" si="1">1-SUM(G2:G9)</f>
-        <v>9.6015999999999879E-2</v>
+        <f t="shared" ref="G10:AH10" si="0">1-SUM(G2:G9)</f>
+        <v>7.6016401000000178E-2</v>
       </c>
       <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1160159999999999</v>
+        <f t="shared" si="0"/>
+        <v>9.6016401000000084E-2</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.13601599999999991</v>
+        <f t="shared" si="0"/>
+        <v>0.1160164010000001</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.15601599999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.13601640100000012</v>
       </c>
       <c r="K10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.17601599999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.15601640100000014</v>
       </c>
       <c r="L10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.19601800000000003</v>
+        <f t="shared" si="0"/>
+        <v>0.17601640100000016</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.2160169999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.19601640099999917</v>
       </c>
       <c r="N10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.236016</v>
+        <f t="shared" si="0"/>
+        <v>0.21601640099999908</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.16003499999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.2360164009999991</v>
       </c>
       <c r="P10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18003399999999992</v>
+        <f t="shared" si="0"/>
+        <v>0.25601640099999912</v>
       </c>
       <c r="Q10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18003299999999989</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640099999913</v>
       </c>
       <c r="R10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18003199999999997</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18003099999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002999999999991</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="U10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002899999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="V10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002799999999985</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002699999999994</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002599999999991</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="Y10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002499999999988</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="Z10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002399999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AA10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002299999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AB10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.1800219999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AC10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18002099999999999</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AD10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18001999999999996</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AE10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18001899999999993</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AF10" s="4">
         <f>1-SUM(AF2:AF9)</f>
-        <v>0.1800179999999999</v>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AG10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18001699999999987</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
       <c r="AH10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.18001599999999995</v>
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/France/scenarii_inputs_ademe.xlsx
+++ b/data/input/France/scenarii_inputs_ademe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/81655/Documents/GitHub/ThreeME_ADEME_V4/data/input/France/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC594E45-A7F3-D842-BF2C-AD762292B7F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D444AD4F-494F-4B4B-91FE-646623AC72F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>POP</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>PHIY_TOE_CELE_SECO</t>
+  </si>
+  <si>
+    <t>Ò</t>
   </si>
 </sst>
 </file>
@@ -1539,123 +1542,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54100A3-763F-8D40-863A-7E3A8CBBE12F}">
-  <dimension ref="A1:BF10"/>
+  <dimension ref="A1:BJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="3" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="C1">
+        <v>2015</v>
+      </c>
+      <c r="D1">
+        <v>2016</v>
+      </c>
+      <c r="E1">
+        <v>2017</v>
+      </c>
+      <c r="F1">
+        <v>2018</v>
+      </c>
+      <c r="G1">
         <v>2019</v>
       </c>
-      <c r="D1">
+      <c r="H1">
         <v>2020</v>
       </c>
-      <c r="E1">
+      <c r="I1">
         <v>2021</v>
       </c>
-      <c r="F1">
+      <c r="J1">
         <v>2022</v>
       </c>
-      <c r="G1">
+      <c r="K1">
         <v>2023</v>
       </c>
-      <c r="H1">
+      <c r="L1">
         <v>2024</v>
       </c>
-      <c r="I1">
+      <c r="M1">
         <v>2025</v>
       </c>
-      <c r="J1">
+      <c r="N1">
         <v>2026</v>
       </c>
-      <c r="K1">
+      <c r="O1">
         <v>2027</v>
       </c>
-      <c r="L1">
+      <c r="P1">
         <v>2028</v>
       </c>
-      <c r="M1">
+      <c r="Q1">
         <v>2029</v>
       </c>
-      <c r="N1">
+      <c r="R1">
         <v>2030</v>
       </c>
-      <c r="O1">
+      <c r="S1">
         <v>2031</v>
       </c>
-      <c r="P1">
+      <c r="T1">
         <v>2032</v>
       </c>
-      <c r="Q1">
+      <c r="U1">
         <v>2033</v>
       </c>
-      <c r="R1">
+      <c r="V1">
         <v>2034</v>
       </c>
-      <c r="S1">
+      <c r="W1">
         <v>2035</v>
       </c>
-      <c r="T1">
+      <c r="X1">
         <v>2036</v>
       </c>
-      <c r="U1">
+      <c r="Y1">
         <v>2037</v>
       </c>
-      <c r="V1">
+      <c r="Z1">
         <v>2038</v>
       </c>
-      <c r="W1">
+      <c r="AA1">
         <v>2039</v>
       </c>
-      <c r="X1">
+      <c r="AB1">
         <v>2040</v>
       </c>
-      <c r="Y1">
+      <c r="AC1">
         <v>2041</v>
       </c>
-      <c r="Z1">
+      <c r="AD1">
         <v>2042</v>
       </c>
-      <c r="AA1">
+      <c r="AE1">
         <v>2043</v>
       </c>
-      <c r="AB1">
+      <c r="AF1">
         <v>2044</v>
       </c>
-      <c r="AC1">
+      <c r="AG1">
         <v>2045</v>
       </c>
-      <c r="AD1">
+      <c r="AH1">
         <v>2046</v>
       </c>
-      <c r="AE1">
+      <c r="AI1">
         <v>2047</v>
       </c>
-      <c r="AF1">
+      <c r="AJ1">
         <v>2048</v>
       </c>
-      <c r="AG1">
+      <c r="AK1">
         <v>2049</v>
       </c>
-      <c r="AH1">
+      <c r="AL1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1758,13 +1773,21 @@
       <c r="AH2" s="5">
         <v>3.9264450999999999E-2</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="1"/>
-      <c r="AO2" s="1"/>
+      <c r="AI2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AL2" s="5">
+        <v>3.9264450999999999E-2</v>
+      </c>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="1"/>
       <c r="AR2" s="1"/>
@@ -1782,8 +1805,12 @@
       <c r="BD2" s="1"/>
       <c r="BE2" s="1"/>
       <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1886,13 +1913,21 @@
       <c r="AH3" s="5">
         <v>5.1293129999999999E-3</v>
       </c>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="1"/>
-      <c r="AO3" s="1"/>
+      <c r="AI3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AL3" s="5">
+        <v>5.1293129999999999E-3</v>
+      </c>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
@@ -1910,8 +1945,12 @@
       <c r="BD3" s="1"/>
       <c r="BE3" s="1"/>
       <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2014,13 +2053,21 @@
       <c r="AH4" s="5">
         <v>4.2151998000000003E-2</v>
       </c>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
+      <c r="AI4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>4.2151998000000003E-2</v>
+      </c>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
       <c r="AP4" s="1"/>
       <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
@@ -2038,8 +2085,12 @@
       <c r="BD4" s="1"/>
       <c r="BE4" s="1"/>
       <c r="BF4" s="1"/>
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1"/>
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1"/>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2142,13 +2193,21 @@
       <c r="AH5" s="5">
         <v>0.10941190000000001</v>
       </c>
-      <c r="AI5" s="2"/>
-      <c r="AJ5" s="2"/>
-      <c r="AK5" s="2"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
+      <c r="AI5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>0.10941190000000001</v>
+      </c>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
       <c r="AP5" s="1"/>
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
@@ -2166,8 +2225,12 @@
       <c r="BD5" s="1"/>
       <c r="BE5" s="1"/>
       <c r="BF5" s="1"/>
+      <c r="BG5" s="1"/>
+      <c r="BH5" s="1"/>
+      <c r="BI5" s="1"/>
+      <c r="BJ5" s="1"/>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2183,53 +2246,53 @@
       <c r="E6" s="5">
         <v>0.71595070699999996</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="5">
+        <v>0.71595070699999996</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.71595070699999996</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.71595070699999996</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.71595070699999996</v>
+      </c>
+      <c r="J6" s="3">
         <v>0.7</v>
       </c>
-      <c r="G6" s="3">
+      <c r="K6" s="3">
         <v>0.7</v>
       </c>
-      <c r="H6" s="3">
+      <c r="L6" s="3">
         <v>0.68</v>
       </c>
-      <c r="I6" s="3">
+      <c r="M6" s="3">
         <v>0.66</v>
       </c>
-      <c r="J6" s="3">
+      <c r="N6" s="3">
         <v>0.64</v>
       </c>
-      <c r="K6" s="3">
+      <c r="O6" s="3">
         <v>0.62</v>
       </c>
-      <c r="L6" s="3">
+      <c r="P6" s="3">
         <v>0.6</v>
       </c>
-      <c r="M6" s="3">
+      <c r="Q6" s="3">
         <v>0.58000000000000096</v>
       </c>
-      <c r="N6" s="3">
+      <c r="R6" s="3">
         <v>0.56000000000000105</v>
       </c>
-      <c r="O6" s="3">
+      <c r="S6" s="3">
         <v>0.54000000000000103</v>
       </c>
-      <c r="P6" s="3">
+      <c r="T6" s="3">
         <v>0.52000000000000102</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="U6" s="3">
         <v>0.500000000000001</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0.5</v>
       </c>
       <c r="V6" s="3">
         <v>0.5</v>
@@ -2270,11 +2333,23 @@
       <c r="AH6" s="3">
         <v>0.5</v>
       </c>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
-      <c r="AK6" s="2"/>
+      <c r="AI6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2377,11 +2452,23 @@
       <c r="AH7" s="5">
         <v>9.5896660000000002E-3</v>
       </c>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
-      <c r="AK7" s="2"/>
+      <c r="AI7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AK7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>9.5896660000000002E-3</v>
+      </c>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2484,11 +2571,23 @@
       <c r="AH8" s="5">
         <v>1.2865439999999999E-3</v>
       </c>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AK8" s="2"/>
+      <c r="AI8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AK8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>1.2865439999999999E-3</v>
+      </c>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2591,8 +2690,20 @@
       <c r="AH9" s="5">
         <v>1.7149727E-2</v>
       </c>
+      <c r="AI9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AK9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>1.7149727E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2608,69 +2719,65 @@
       <c r="E10" s="5">
         <v>6.0065696000000002E-2</v>
       </c>
-      <c r="F10" s="4">
-        <f>1-SUM(F2:F9)</f>
+      <c r="F10" s="5">
+        <v>6.0065696000000002E-2</v>
+      </c>
+      <c r="G10" s="5">
+        <v>6.0065696000000002E-2</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6.0065696000000002E-2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>6.0065696000000002E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <f>1-SUM(J2:J9)</f>
         <v>7.6016401000000178E-2</v>
       </c>
-      <c r="G10" s="4">
-        <f t="shared" ref="G10:AH10" si="0">1-SUM(G2:G9)</f>
+      <c r="K10" s="4">
+        <f t="shared" ref="K10:AL10" si="0">1-SUM(K2:K9)</f>
         <v>7.6016401000000178E-2</v>
       </c>
-      <c r="H10" s="4">
+      <c r="L10" s="4">
         <f t="shared" si="0"/>
         <v>9.6016401000000084E-2</v>
       </c>
-      <c r="I10" s="4">
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>0.1160164010000001</v>
       </c>
-      <c r="J10" s="4">
+      <c r="N10" s="4">
         <f t="shared" si="0"/>
         <v>0.13601640100000012</v>
       </c>
-      <c r="K10" s="4">
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
         <v>0.15601640100000014</v>
       </c>
-      <c r="L10" s="4">
+      <c r="P10" s="4">
         <f t="shared" si="0"/>
         <v>0.17601640100000016</v>
       </c>
-      <c r="M10" s="4">
+      <c r="Q10" s="4">
         <f t="shared" si="0"/>
         <v>0.19601640099999917</v>
       </c>
-      <c r="N10" s="4">
+      <c r="R10" s="4">
         <f t="shared" si="0"/>
         <v>0.21601640099999908</v>
       </c>
-      <c r="O10" s="4">
+      <c r="S10" s="4">
         <f t="shared" si="0"/>
         <v>0.2360164009999991</v>
       </c>
-      <c r="P10" s="4">
+      <c r="T10" s="4">
         <f t="shared" si="0"/>
         <v>0.25601640099999912</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="U10" s="4">
         <f t="shared" si="0"/>
         <v>0.27601640099999913</v>
-      </c>
-      <c r="R10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27601640100000013</v>
-      </c>
-      <c r="S10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27601640100000013</v>
-      </c>
-      <c r="T10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27601640100000013</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.27601640100000013</v>
       </c>
       <c r="V10" s="4">
         <f t="shared" si="0"/>
@@ -2713,7 +2820,7 @@
         <v>0.27601640100000013</v>
       </c>
       <c r="AF10" s="4">
-        <f>1-SUM(AF2:AF9)</f>
+        <f t="shared" si="0"/>
         <v>0.27601640100000013</v>
       </c>
       <c r="AG10" s="4">
@@ -2723,6 +2830,27 @@
       <c r="AH10" s="4">
         <f t="shared" si="0"/>
         <v>0.27601640100000013</v>
+      </c>
+      <c r="AI10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
+      </c>
+      <c r="AJ10" s="4">
+        <f>1-SUM(AJ2:AJ9)</f>
+        <v>0.27601640100000013</v>
+      </c>
+      <c r="AK10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
+      </c>
+      <c r="AL10" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27601640100000013</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
